--- a/data/turkey.xlsx
+++ b/data/turkey.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CR9"/>
+  <dimension ref="A1:CS9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,853 +360,865 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Sweet.XEL</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Nutmeg.XEL</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Spicy.XEL</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Yeast.XEL</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>SAL.XEL</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Acid.XEL</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Umami.XEL</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Salivating.XEL</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>White.meat.XEL</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>White meat.XEL</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Juicy.XEL</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Cured.XEL</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Fatty.XEL</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Sweet.LALO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Nutmeg.LALO</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Spicy.LALO</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Yeast.LALO</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>SAL.LALO</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Acid.LALO</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Umami.LALO</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Salivating.LALO</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>White.meat.LALO</t>
-        </is>
-      </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>White meat.LALO</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>Juicy.LALO</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Cured.LALO</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Fatty.LALO</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Sweet.JUAN</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Nutmeg.JUAN</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Spicy.JUAN</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Yeast.JUAN</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>SAL.JUAN</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Acid.JUAN</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Umami.JUAN</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Salivating.JUAN</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>White.meat.JUAN</t>
-        </is>
-      </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
+          <t>White meat.JUAN</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
           <t>Juicy.JUAN</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Cured.JUAN</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Fatty.JUAN</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Sweet.MARTHA</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Nutmeg.MARTHA</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Spicy.MARTHA</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Yeast.MARTHA</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>SAL.MARTHA</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Acid.MARTHA</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Umami.MARTHA</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Salivating.MARTHA</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>White.meat.MARTHA</t>
-        </is>
-      </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
+          <t>White meat.MARTHA</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
           <t>Juicy.MARTHA</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Cured.MARTHA</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Fatty.MARTHA</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Sweet.NERI</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Nutmeg.NERI</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Spicy.NERI</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Yeast.NERI</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>SAL.NERI</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Acid.NERI</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Umami.NERI</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Salivating.NERI</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>White.meat.NERI</t>
-        </is>
-      </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
+          <t>White meat.NERI</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
           <t>Juicy.NERI</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>Cured.NERI</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Fatty.NERI</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Sweet.DIANA</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Nutmeg.DIANA</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Spicy.DIANA</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Yeast.DIANA</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>SAL.DIANA</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Acid.DIANA</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Umami.DIANA</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Salivating.DIANA</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>White.meat.DIANA</t>
-        </is>
-      </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
+          <t>White meat.DIANA</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
           <t>Juicy.DIANA</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>Cured.DIANA</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Fatty.DIANA</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Sweet.DULCE</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>Nutmeg.DULCE</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>Spicy.DULCE</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>Yeast.DULCE</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>SAL.DULCE</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>Acid.DULCE</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>Umami.DULCE</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>Salivating.DULCE</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>White.meat.DULCE</t>
-        </is>
-      </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
+          <t>White meat.DULCE</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
           <t>Juicy.DULCE</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>Cured.DULCE</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>Fatty.DULCE</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>Sweet.RAUL</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>Nutmeg.RAUL</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>Spicy.RAUL</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>Yeast.RAUL</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>SAL.RAUL</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>Acid.RAUL</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>Umami.RAUL</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>Salivating.RAUL</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>White.meat.RAUL</t>
-        </is>
-      </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
+          <t>White meat.RAUL</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
           <t>Juicy.RAUL</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>Cured.RAUL</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>Fatty.RAUL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PECHUGA DE PAVO HORNEADO SAN RAFAEL</t>
+        </is>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>3.5</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R2">
+        <v>2.5</v>
+      </c>
+      <c r="S2">
         <v>1.5</v>
       </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
       <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
         <v>3.5</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>4.5</v>
       </c>
-      <c r="V2">
-        <v>2.5</v>
-      </c>
       <c r="W2">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="X2">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>3</v>
       </c>
       <c r="AG2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP2">
+        <v>3</v>
+      </c>
+      <c r="AQ2">
         <v>0.5</v>
       </c>
-      <c r="AQ2">
-        <v>1</v>
-      </c>
       <c r="AR2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AS2">
         <v>5</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AU2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV2">
         <v>2</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX2">
         <v>0</v>
       </c>
       <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
         <v>1.5</v>
       </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
       <c r="BA2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB2">
+        <v>2</v>
+      </c>
+      <c r="BC2">
         <v>1.5</v>
       </c>
-      <c r="BC2">
-        <v>2</v>
-      </c>
       <c r="BD2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BF2">
+        <v>5</v>
+      </c>
+      <c r="BG2">
         <v>3.5</v>
       </c>
-      <c r="BG2">
-        <v>4</v>
-      </c>
       <c r="BH2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ2">
         <v>0</v>
       </c>
       <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
         <v>1.5</v>
       </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
       <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
         <v>1.5</v>
       </c>
-      <c r="BN2">
+      <c r="BO2">
         <v>0.5</v>
       </c>
-      <c r="BO2">
-        <v>4</v>
-      </c>
       <c r="BP2">
+        <v>4</v>
+      </c>
+      <c r="BQ2">
         <v>1.5</v>
       </c>
-      <c r="BQ2">
-        <v>5</v>
-      </c>
       <c r="BR2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BS2">
+        <v>3</v>
+      </c>
+      <c r="BT2">
         <v>3.5</v>
       </c>
-      <c r="BT2">
-        <v>3</v>
-      </c>
       <c r="BU2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV2">
         <v>0</v>
       </c>
       <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
         <v>3.5</v>
       </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
       <c r="BY2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CA2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CB2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CD2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CE2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CF2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CG2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CH2">
         <v>0</v>
       </c>
       <c r="CI2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CK2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CM2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CN2">
         <v>2</v>
       </c>
       <c r="CO2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CP2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CQ2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CR2">
+        <v>4</v>
+      </c>
+      <c r="CS2">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>5</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PECHUGA DE PAVO SABORI PARM RED GRASA Y SODIO</t>
+        </is>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <v>6</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
         <v>3.5</v>
       </c>
-      <c r="N3">
-        <v>4</v>
-      </c>
       <c r="O3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3">
         <v>3</v>
       </c>
       <c r="Q3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="S3">
         <v>3</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W3">
+        <v>4</v>
+      </c>
+      <c r="X3">
         <v>3.5</v>
       </c>
-      <c r="X3">
-        <v>3</v>
-      </c>
       <c r="Y3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -1215,453 +1227,458 @@
         <v>2</v>
       </c>
       <c r="AC3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF3">
         <v>3</v>
       </c>
       <c r="AG3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP3">
+        <v>2</v>
+      </c>
+      <c r="AQ3">
         <v>0.4</v>
       </c>
-      <c r="AQ3">
-        <v>3</v>
-      </c>
       <c r="AR3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AS3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AU3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV3">
         <v>4</v>
       </c>
       <c r="AW3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX3">
         <v>2</v>
       </c>
       <c r="AY3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
         <v>1.5</v>
       </c>
-      <c r="BB3">
-        <v>2</v>
-      </c>
       <c r="BC3">
+        <v>2</v>
+      </c>
+      <c r="BD3">
         <v>1.5</v>
       </c>
-      <c r="BD3">
-        <v>3</v>
-      </c>
       <c r="BE3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BF3">
+        <v>5</v>
+      </c>
+      <c r="BG3">
         <v>3.5</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <v>4.5</v>
       </c>
-      <c r="BH3">
-        <v>2</v>
-      </c>
       <c r="BI3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ3">
+        <v>3</v>
+      </c>
+      <c r="BK3">
         <v>3.5</v>
       </c>
-      <c r="BK3">
-        <v>2</v>
-      </c>
       <c r="BL3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BM3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BN3">
+        <v>2</v>
+      </c>
+      <c r="BO3">
         <v>1.5</v>
       </c>
-      <c r="BO3">
-        <v>2</v>
-      </c>
       <c r="BP3">
         <v>2</v>
       </c>
       <c r="BQ3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BR3">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="BS3">
+        <v>2.5</v>
+      </c>
+      <c r="BT3">
         <v>3.5</v>
       </c>
-      <c r="BT3">
-        <v>2.5</v>
-      </c>
       <c r="BU3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BV3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BW3">
+        <v>5</v>
+      </c>
+      <c r="BX3">
         <v>3.5</v>
       </c>
-      <c r="BX3">
-        <v>3</v>
-      </c>
       <c r="BY3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BZ3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CA3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CB3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC3">
         <v>5</v>
       </c>
       <c r="CD3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CE3">
         <v>6</v>
       </c>
       <c r="CF3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CG3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CH3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CI3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CJ3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CK3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CM3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CN3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO3">
+        <v>2</v>
+      </c>
+      <c r="CP3">
         <v>7</v>
       </c>
-      <c r="CP3">
-        <v>4</v>
-      </c>
       <c r="CQ3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CR3">
+        <v>6</v>
+      </c>
+      <c r="CS3">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>0</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PECHUGA DE PAVO VIRGINIA DE FUD BAJA EN GRASA</t>
+        </is>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>6</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>3.5</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
         <v>4.5</v>
       </c>
-      <c r="U4">
-        <v>6</v>
-      </c>
       <c r="V4">
+        <v>6</v>
+      </c>
+      <c r="W4">
         <v>3.5</v>
       </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
       <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
         <v>1.5</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>3</v>
       </c>
       <c r="AG4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI4">
         <v>4</v>
       </c>
       <c r="AJ4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AS4">
         <v>6</v>
       </c>
       <c r="AT4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AU4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX4">
         <v>0</v>
       </c>
       <c r="AY4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BA4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BB4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="BC4">
         <v>2.5</v>
       </c>
       <c r="BD4">
+        <v>2.5</v>
+      </c>
+      <c r="BE4">
         <v>3.5</v>
       </c>
-      <c r="BE4">
-        <v>6</v>
-      </c>
       <c r="BF4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH4">
+        <v>5</v>
+      </c>
+      <c r="BI4">
         <v>1.5</v>
       </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
       <c r="BJ4">
         <v>0</v>
       </c>
       <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
         <v>3.5</v>
       </c>
-      <c r="BL4">
-        <v>3</v>
-      </c>
       <c r="BM4">
         <v>3</v>
       </c>
       <c r="BN4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BO4">
         <v>4</v>
       </c>
       <c r="BP4">
+        <v>4</v>
+      </c>
+      <c r="BQ4">
         <v>4.5</v>
       </c>
-      <c r="BQ4">
-        <v>5</v>
-      </c>
       <c r="BR4">
+        <v>5</v>
+      </c>
+      <c r="BS4">
         <v>4.5</v>
       </c>
-      <c r="BS4">
-        <v>4</v>
-      </c>
       <c r="BT4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="BU4">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BV4">
         <v>0</v>
       </c>
       <c r="BW4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BY4">
         <v>3</v>
       </c>
       <c r="BZ4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CA4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CB4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CD4">
         <v>4</v>
@@ -1670,54 +1687,59 @@
         <v>4</v>
       </c>
       <c r="CF4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CG4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CH4">
         <v>0</v>
       </c>
       <c r="CI4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
         <v>3</v>
       </c>
       <c r="CK4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CL4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CM4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CN4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CP4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CQ4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CR4">
+        <v>6</v>
+      </c>
+      <c r="CS4">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>5</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PECHUGA DE PAVO CAMPESTRE DE PARMA</t>
+        </is>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1726,100 +1748,100 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
         <v>5.5</v>
       </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O5">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Q5">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
         <v>3.5</v>
       </c>
-      <c r="T5">
-        <v>4</v>
-      </c>
       <c r="U5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5">
         <v>3.5</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>4.5</v>
       </c>
-      <c r="X5">
-        <v>4</v>
-      </c>
       <c r="Y5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
         <v>1.5</v>
       </c>
-      <c r="AA5">
-        <v>2</v>
-      </c>
       <c r="AB5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE5">
         <v>3</v>
       </c>
       <c r="AF5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AG5">
+        <v>2.5</v>
+      </c>
+      <c r="AH5">
         <v>7</v>
       </c>
-      <c r="AH5">
-        <v>4</v>
-      </c>
       <c r="AI5">
         <v>4</v>
       </c>
       <c r="AJ5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL5">
         <v>2</v>
@@ -1828,28 +1850,28 @@
         <v>2</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR5">
+        <v>3</v>
+      </c>
+      <c r="AS5">
         <v>5.5</v>
       </c>
-      <c r="AS5">
-        <v>6</v>
-      </c>
       <c r="AT5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV5">
         <v>2</v>
@@ -1858,464 +1880,474 @@
         <v>2</v>
       </c>
       <c r="AX5">
+        <v>2</v>
+      </c>
+      <c r="AY5">
         <v>1.5</v>
       </c>
-      <c r="AY5">
-        <v>2.5</v>
-      </c>
       <c r="AZ5">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
         <v>1.5</v>
       </c>
-      <c r="BB5">
-        <v>1</v>
-      </c>
       <c r="BC5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
         <v>1.5</v>
       </c>
-      <c r="BD5">
+      <c r="BE5">
         <v>3.5</v>
       </c>
-      <c r="BE5">
-        <v>5</v>
-      </c>
       <c r="BF5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI5">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="BJ5">
         <v>3.5</v>
       </c>
       <c r="BK5">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="BL5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="BN5">
+        <v>2.5</v>
+      </c>
+      <c r="BO5">
         <v>1.5</v>
       </c>
-      <c r="BO5">
-        <v>2</v>
-      </c>
       <c r="BP5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BQ5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BR5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS5">
+        <v>5</v>
+      </c>
+      <c r="BT5">
         <v>5.5</v>
       </c>
-      <c r="BT5">
-        <v>3</v>
-      </c>
       <c r="BU5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BV5">
         <v>4</v>
       </c>
       <c r="BW5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BX5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BY5">
         <v>2</v>
       </c>
       <c r="BZ5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CA5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CB5">
+        <v>5</v>
+      </c>
+      <c r="CC5">
         <v>5.5</v>
       </c>
-      <c r="CC5">
-        <v>5</v>
-      </c>
       <c r="CD5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CE5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CF5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CG5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CH5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CJ5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CK5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CL5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CM5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CN5">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="CO5">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="CP5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CQ5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CR5">
+        <v>6</v>
+      </c>
+      <c r="CS5">
         <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>2</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PECHUGA DE PAVO VIRGINIA ZWAN PREMIUM</t>
+        </is>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
         <v>1.5</v>
       </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
         <v>2</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
         <v>5.5</v>
       </c>
-      <c r="U6">
-        <v>6</v>
-      </c>
       <c r="V6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG6">
+        <v>3</v>
+      </c>
+      <c r="AH6">
         <v>7</v>
       </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
       <c r="AI6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN6">
+        <v>3</v>
+      </c>
+      <c r="AO6">
         <v>0.5</v>
       </c>
-      <c r="AO6">
-        <v>4</v>
-      </c>
       <c r="AP6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR6">
+        <v>2</v>
+      </c>
+      <c r="AS6">
         <v>5.5</v>
       </c>
-      <c r="AS6">
-        <v>5</v>
-      </c>
       <c r="AT6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
         <v>1.5</v>
       </c>
-      <c r="BA6">
-        <v>2</v>
-      </c>
       <c r="BB6">
         <v>2</v>
       </c>
       <c r="BC6">
+        <v>2</v>
+      </c>
+      <c r="BD6">
         <v>1.5</v>
       </c>
-      <c r="BD6">
-        <v>3</v>
-      </c>
       <c r="BE6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BF6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI6">
         <v>2</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
         <v>1.5</v>
       </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
       <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
         <v>3.5</v>
       </c>
-      <c r="BN6">
-        <v>2.5</v>
-      </c>
       <c r="BO6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BP6">
+        <v>3</v>
+      </c>
+      <c r="BQ6">
         <v>1.5</v>
       </c>
-      <c r="BQ6">
-        <v>6</v>
-      </c>
       <c r="BR6">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="BS6">
+        <v>2.5</v>
+      </c>
+      <c r="BT6">
         <v>4.5</v>
       </c>
-      <c r="BT6">
-        <v>4</v>
-      </c>
       <c r="BU6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BV6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BY6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BZ6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CA6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CD6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CE6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CF6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CG6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK6">
         <v>3</v>
       </c>
       <c r="CL6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CM6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO6">
+        <v>3</v>
+      </c>
+      <c r="CP6">
         <v>7</v>
       </c>
-      <c r="CP6">
-        <v>3</v>
-      </c>
       <c r="CQ6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CR6">
+        <v>6</v>
+      </c>
+      <c r="CS6">
         <v>2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>2</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PECHUGA DE PAVO NATURAL ZWAN PREMIUM</t>
+        </is>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -2324,241 +2356,241 @@
         <v>5</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
         <v>3.5</v>
       </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
       <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
         <v>3.5</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>4.5</v>
       </c>
-      <c r="U7">
-        <v>5</v>
-      </c>
       <c r="V7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7">
         <v>1.5</v>
       </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
         <v>0.5</v>
       </c>
-      <c r="AC7">
-        <v>5</v>
-      </c>
       <c r="AD7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>2</v>
       </c>
       <c r="AG7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AS7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AU7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV7">
         <v>3</v>
       </c>
       <c r="AW7">
+        <v>3</v>
+      </c>
+      <c r="AX7">
         <v>1.5</v>
       </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
       <c r="AY7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB7">
+        <v>2</v>
+      </c>
+      <c r="BC7">
         <v>1.5</v>
       </c>
-      <c r="BC7">
-        <v>2</v>
-      </c>
       <c r="BD7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="BE7">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="BF7">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="BG7">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="BH7">
+        <v>4</v>
+      </c>
+      <c r="BI7">
         <v>1.5</v>
       </c>
-      <c r="BI7">
-        <v>3</v>
-      </c>
       <c r="BJ7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BN7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BO7">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="BP7">
         <v>3.5</v>
       </c>
       <c r="BQ7">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="BR7">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="BS7">
+        <v>2.5</v>
+      </c>
+      <c r="BT7">
         <v>4.5</v>
       </c>
-      <c r="BT7">
-        <v>3</v>
-      </c>
       <c r="BU7">
         <v>3</v>
       </c>
       <c r="BV7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BX7">
         <v>3</v>
       </c>
       <c r="BY7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BZ7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CA7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CD7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CE7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CF7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CG7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH7">
         <v>0</v>
       </c>
       <c r="CI7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CJ7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CK7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CL7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CM7">
         <v>2</v>
@@ -2567,177 +2599,182 @@
         <v>2</v>
       </c>
       <c r="CO7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CP7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CQ7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CR7">
+        <v>5</v>
+      </c>
+      <c r="CS7">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>0</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PECHUGA DE PAVO CLÁSICA SAN RAFAEL</t>
+        </is>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>3.5</v>
       </c>
-      <c r="P8">
-        <v>2.5</v>
-      </c>
       <c r="Q8">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
         <v>3.5</v>
       </c>
-      <c r="T8">
-        <v>5</v>
-      </c>
       <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
         <v>5.5</v>
       </c>
-      <c r="V8">
-        <v>3</v>
-      </c>
       <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
         <v>3.5</v>
       </c>
-      <c r="X8">
-        <v>2</v>
-      </c>
       <c r="Y8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>3</v>
       </c>
       <c r="AC8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG8">
+        <v>3</v>
+      </c>
+      <c r="AH8">
         <v>7</v>
       </c>
-      <c r="AH8">
-        <v>3</v>
-      </c>
       <c r="AI8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AS8">
         <v>6</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AU8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV8">
         <v>2</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX8">
         <v>0</v>
       </c>
       <c r="AY8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB8">
         <v>2</v>
@@ -2746,384 +2783,389 @@
         <v>2</v>
       </c>
       <c r="BD8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BF8">
+        <v>6</v>
+      </c>
+      <c r="BG8">
         <v>3.5</v>
       </c>
-      <c r="BG8">
-        <v>4</v>
-      </c>
       <c r="BH8">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="BI8">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BJ8">
         <v>0</v>
       </c>
       <c r="BK8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL8">
+        <v>3</v>
+      </c>
+      <c r="BM8">
         <v>4.5</v>
       </c>
-      <c r="BM8">
-        <v>6</v>
-      </c>
       <c r="BN8">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="BO8">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="BP8">
         <v>4</v>
       </c>
       <c r="BQ8">
+        <v>4</v>
+      </c>
+      <c r="BR8">
         <v>7</v>
       </c>
-      <c r="BR8">
+      <c r="BS8">
         <v>4.5</v>
       </c>
-      <c r="BS8">
+      <c r="BT8">
         <v>5.5</v>
       </c>
-      <c r="BT8">
+      <c r="BU8">
         <v>4.5</v>
       </c>
-      <c r="BU8">
-        <v>0</v>
-      </c>
       <c r="BV8">
         <v>0</v>
       </c>
       <c r="BW8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BX8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BY8">
         <v>2</v>
       </c>
       <c r="BZ8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CA8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CD8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CE8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CF8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CG8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH8">
         <v>0</v>
       </c>
       <c r="CI8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CJ8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CK8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CL8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CM8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CN8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO8">
+        <v>3</v>
+      </c>
+      <c r="CP8">
         <v>7</v>
       </c>
-      <c r="CP8">
-        <v>3</v>
-      </c>
       <c r="CQ8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CR8">
+        <v>6</v>
+      </c>
+      <c r="CS8">
         <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>3</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PECHUGA DE PAVO ALPINO</t>
+        </is>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
         <v>4.5</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>5.5</v>
       </c>
-      <c r="U9">
-        <v>6</v>
-      </c>
       <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9">
         <v>3.5</v>
-      </c>
-      <c r="W9">
-        <v>4.5</v>
       </c>
       <c r="X9">
         <v>4.5</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
         <v>0.5</v>
       </c>
-      <c r="AC9">
-        <v>5</v>
-      </c>
       <c r="AD9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF9">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AG9">
+        <v>2.5</v>
+      </c>
+      <c r="AH9">
         <v>7</v>
       </c>
-      <c r="AH9">
-        <v>4</v>
-      </c>
       <c r="AI9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9">
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR9">
+        <v>4</v>
+      </c>
+      <c r="AS9">
         <v>5.5</v>
       </c>
-      <c r="AS9">
-        <v>5</v>
-      </c>
       <c r="AT9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AU9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW9">
         <v>1</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9">
         <v>0</v>
       </c>
       <c r="AZ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BB9">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BC9">
+        <v>2</v>
+      </c>
+      <c r="BD9">
         <v>1.5</v>
       </c>
-      <c r="BD9">
-        <v>2.5</v>
-      </c>
       <c r="BE9">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="BF9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH9">
+        <v>4</v>
+      </c>
+      <c r="BI9">
         <v>1.5</v>
       </c>
-      <c r="BI9">
+      <c r="BJ9">
         <v>3.5</v>
       </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
       <c r="BK9">
         <v>0</v>
       </c>
       <c r="BL9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BM9">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="BO9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BP9">
         <v>4</v>
       </c>
       <c r="BQ9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BR9">
+        <v>6</v>
+      </c>
+      <c r="BS9">
         <v>3.5</v>
       </c>
-      <c r="BS9">
-        <v>5</v>
-      </c>
       <c r="BT9">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="BU9">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BV9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BY9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BZ9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CA9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CB9">
+        <v>4</v>
+      </c>
+      <c r="CC9">
         <v>5.5</v>
       </c>
-      <c r="CC9">
+      <c r="CD9">
         <v>7</v>
       </c>
-      <c r="CD9">
-        <v>4</v>
-      </c>
       <c r="CE9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CF9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CG9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH9">
         <v>0</v>
@@ -3132,30 +3174,33 @@
         <v>0</v>
       </c>
       <c r="CJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CL9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CM9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CN9">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="CO9">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="CP9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CQ9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CR9">
+        <v>2</v>
+      </c>
+      <c r="CS9">
         <v>1</v>
       </c>
     </row>
